--- a/Singlet_Fission_Compounds.xlsx
+++ b/Singlet_Fission_Compounds.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My_Computer\Meh!!!!!!!\workspace\VIT_LAB\SingletFission_ML\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C400EDF2-C2D3-4DDF-BD6C-EC1960C664ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B402DC85-DE2F-42EC-A4E6-45C0668879A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{E1A5F173-ED64-43BB-B8FF-33B21AB07F71}"/>
   </bookViews>
@@ -549,7 +549,7 @@
   <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
